--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techpriestw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6488B1F-7460-425D-B552-77E3936520C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13980" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,14 @@
     <sheet name="commit统计表" sheetId="2" r:id="rId3"/>
     <sheet name="测试统计表" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="129">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,14 +95,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>谁提交的这个commit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>commit的简要说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>测试统计表</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -126,14 +123,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>任务的简要说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交到Github上commit的id（7位）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>任务序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,14 +159,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>commit有效代码行数，包含新增和修订的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义的任务id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>参与人员（工作量比例）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -212,12 +193,605 @@
   <si>
     <t>追踪到其他几个数据表所列出的统计数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贺正</t>
+    <rPh sb="0" eb="1">
+      <t>w'h'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <rPh sb="0" eb="1">
+      <t>g'zh</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳韵非</t>
+    <rPh sb="0" eb="1">
+      <t>y'y'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨光</t>
+    <rPh sb="0" eb="1">
+      <t>yang'guang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单勇</t>
+    <rPh sb="0" eb="1">
+      <t>shan'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechpriestW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>captgao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyfydtyxy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gilbert-gorshkov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sybuaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <rPh sb="0" eb="1">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'xie</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贺正、高则晗、单勇、阳韵非、杨光</t>
+    <rPh sb="0" eb="1">
+      <t>w'h'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>g'zh</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan'yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>y'y'f</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yang'guang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动移动控制</t>
+    <rPh sb="0" eb="1">
+      <t>shou'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kng'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取控制</t>
+    <rPh sb="0" eb="1">
+      <t>zhua'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光雷达及自动导航开发</t>
+    <rPh sb="0" eb="1">
+      <t>ji'guang'lei'da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao'hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨光、高则晗、阳韵非</t>
+    <rPh sb="0" eb="1">
+      <t>yang'guang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao'ze'han</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yang'yun'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机控制app开发</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贺正、高则晗、阳韵非</t>
+    <rPh sb="0" eb="1">
+      <t>w'h'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>g'z'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>y'y'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单勇、高则晗、阳韵非</t>
+    <rPh sb="0" eb="1">
+      <t>shan'yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao'ze'han</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yang'yun'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80fd170</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7af2686</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5cbb908</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c6811e</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2573a3f</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac49852</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9faeb2b</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa5bed9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f4417a</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06794c1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>b558cdc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>edfcebc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>b88c732</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>07d938b</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50e32f9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9b859a2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b07015</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1df265</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贺正</t>
+    <rPh sb="0" eb="1">
+      <t>w'h'z</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建开发计划文档</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa'ji'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改开发计划文档</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改开发计划文档</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dagn</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求分析文档</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu'fen'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wn'dagn</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建需求分析文档</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建软件设计说明书</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jain</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shuo'ming'shu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改软件设计说明书</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shuo'ming'shu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建中段总结与反思</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'duan'zong'jie'yu'fan'si</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>e56ece0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6e597d6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加抓取部分代码</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhua'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改抓取部分代码</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhua'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>118a981</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>281de20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41ea42c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>065902d</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5911f26</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>65faea2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3b48f23</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24bd392</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>870f11a</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>504139d</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>91bc361</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>40f8521</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b0b31e</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>a673374</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b27441</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>63a2675</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9274cce</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee24140</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d99256b</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a97b2c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02bd5da</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcf4eba</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>955c2ca</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6e1c221</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c40a6f</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6a0f1e</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>31adcbf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6acef83</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>e125e21</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bca09b4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99e5dcd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>90845a0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>57bdbef</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>07364d7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加急停功能代码</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改测试报告文档</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -226,6 +800,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,9 +1047,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -529,16 +1101,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +1115,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,35 +1426,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
-    <col min="14" max="16" width="12.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="12.83203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -893,22 +1468,24 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="13">
+        <v>203</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
@@ -916,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>3</v>
@@ -925,58 +1502,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.15">
+      <c r="A10" s="18">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="33" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="69" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -991,11 +1588,11 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1009,11 +1606,11 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1027,11 +1624,11 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1045,11 +1642,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1063,11 +1660,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1081,7 +1678,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -1099,7 +1696,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -1117,7 +1714,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1129,9 +1726,9 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="23" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1149,8 +1746,8 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>3</v>
@@ -1177,15 +1774,25 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1197,15 +1804,15 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1217,7 +1824,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
@@ -1235,17 +1842,17 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+        <v>36</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1257,17 +1864,17 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1279,7 +1886,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1297,7 +1904,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1315,7 +1922,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1333,7 +1940,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1351,7 +1958,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1369,7 +1976,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1387,7 +1994,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1405,7 +2012,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1423,7 +2030,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1441,7 +2048,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1459,7 +2066,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1477,7 +2084,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1495,7 +2102,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1513,7 +2120,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1531,7 +2138,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1549,7 +2156,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1567,7 +2174,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1585,7 +2192,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1603,7 +2210,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1621,7 +2228,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1639,7 +2246,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1657,7 +2264,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1675,7 +2282,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1693,7 +2300,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1711,7 +2318,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1729,7 +2336,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1747,7 +2354,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1765,7 +2372,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1783,7 +2390,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1801,7 +2408,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1819,7 +2426,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1837,7 +2444,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1855,7 +2462,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1873,7 +2480,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1891,7 +2498,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1909,7 +2516,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1927,7 +2534,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1945,7 +2552,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1963,7 +2570,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1981,7 +2588,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1999,7 +2606,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2017,7 +2624,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2035,7 +2642,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2053,7 +2660,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2071,7 +2678,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2089,7 +2696,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2107,7 +2714,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2125,7 +2732,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2143,7 +2750,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2161,7 +2768,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2179,7 +2786,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2197,7 +2804,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2215,7 +2822,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2233,7 +2840,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2251,7 +2858,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2269,7 +2876,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2287,7 +2894,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2305,7 +2912,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2323,7 +2930,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2341,7 +2948,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2359,7 +2966,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2377,7 +2984,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2395,7 +3002,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2413,7 +3020,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2431,7 +3038,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2449,7 +3056,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2467,7 +3074,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2485,7 +3092,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2503,7 +3110,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2521,7 +3128,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2539,7 +3146,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2557,7 +3164,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2575,7 +3182,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2593,7 +3200,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2611,7 +3218,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2629,7 +3236,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2647,7 +3254,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2665,7 +3272,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2683,7 +3290,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2701,7 +3308,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2719,7 +3326,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2737,7 +3344,7 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2755,7 +3362,7 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2773,7 +3380,7 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2791,7 +3398,7 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2809,7 +3416,7 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2827,7 +3434,7 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2845,7 +3452,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2863,7 +3470,7 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2881,7 +3488,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2899,7 +3506,7 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2917,7 +3524,7 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2935,7 +3542,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2953,7 +3560,7 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2971,7 +3578,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2989,7 +3596,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3007,7 +3614,7 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3025,7 +3632,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3043,7 +3650,7 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3061,7 +3668,7 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3079,7 +3686,7 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3097,7 +3704,7 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3115,7 +3722,7 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3133,7 +3740,7 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3151,7 +3758,7 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3169,7 +3776,7 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3187,7 +3794,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3205,7 +3812,7 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3223,7 +3830,7 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3241,7 +3848,7 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3259,7 +3866,7 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3277,7 +3884,7 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3295,7 +3902,7 @@
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3313,7 +3920,7 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3331,7 +3938,7 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3349,7 +3956,7 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3367,7 +3974,7 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3385,7 +3992,7 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3403,7 +4010,7 @@
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3421,7 +4028,7 @@
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3439,7 +4046,7 @@
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3457,7 +4064,7 @@
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3475,7 +4082,7 @@
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3493,7 +4100,7 @@
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3511,7 +4118,7 @@
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3529,7 +4136,7 @@
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3547,7 +4154,7 @@
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3565,7 +4172,7 @@
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3583,7 +4190,7 @@
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3601,7 +4208,7 @@
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3619,7 +4226,7 @@
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3637,7 +4244,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3655,7 +4262,7 @@
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3673,7 +4280,7 @@
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3691,7 +4298,7 @@
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3709,7 +4316,7 @@
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3727,7 +4334,7 @@
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3745,7 +4352,7 @@
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3763,7 +4370,7 @@
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3781,7 +4388,7 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3799,7 +4406,7 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3817,7 +4424,7 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3835,7 +4442,7 @@
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3853,7 +4460,7 @@
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3871,7 +4478,7 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3889,7 +4496,7 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3907,7 +4514,7 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3925,7 +4532,7 @@
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3943,7 +4550,7 @@
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3961,7 +4568,7 @@
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3979,7 +4586,7 @@
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3997,7 +4604,7 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4015,7 +4622,7 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4033,7 +4640,7 @@
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4051,7 +4658,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4069,7 +4676,7 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4087,7 +4694,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4105,7 +4712,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4123,7 +4730,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4141,7 +4748,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4159,7 +4766,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4177,7 +4784,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4195,7 +4802,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4213,7 +4820,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4231,7 +4838,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4249,7 +4856,7 @@
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4267,7 +4874,7 @@
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4285,7 +4892,7 @@
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4303,7 +4910,7 @@
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4321,7 +4928,7 @@
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4339,7 +4946,7 @@
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4357,7 +4964,7 @@
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4375,7 +4982,7 @@
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4393,7 +5000,7 @@
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4411,7 +5018,7 @@
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4429,7 +5036,7 @@
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4447,7 +5054,7 @@
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4465,7 +5072,7 @@
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4483,7 +5090,7 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4501,7 +5108,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4519,7 +5126,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4537,7 +5144,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4555,7 +5162,7 @@
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4573,7 +5180,7 @@
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4591,7 +5198,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4609,7 +5216,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4627,7 +5234,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -4645,7 +5252,7 @@
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4663,7 +5270,7 @@
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4681,7 +5288,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4713,80 +5320,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06401FC5-5005-49A2-9140-33193ABED079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>39</v>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -4870,31 +5509,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="4" max="4" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -4907,147 +5546,627 @@
         <v>13</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>15</v>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7447475</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="9">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="16">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="16">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="9">
+        <v>66</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="16">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="16">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="16">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9">
+        <v>9894979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="16">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="16">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="16">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="16">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="16">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="16">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="16">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="16">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="16">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="16">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="16">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="16">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="16">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="16">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="16">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="16">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="16">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="16">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="16">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="16">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="16">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="16">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="16">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="16">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5060,61 +6179,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949143DB-CAF6-450C-9F5A-9FA2FAF2207A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="35" t="s">
-        <v>39</v>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -5122,119 +6241,119 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="23"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techpriestw/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techpriestw/Documents/GitHub/Team203/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13980" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24860" windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>贡献度数据追踪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献度分配的计算依据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -260,38 +256,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>王贺正、高则晗、单勇、阳韵非、杨光</t>
-    <rPh sb="0" eb="1">
-      <t>w'h'z</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>g'zh</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shan'yong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>y'y'f</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yang'guang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动移动控制</t>
-    <rPh sb="0" eb="1">
-      <t>shou'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kng'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抓取控制</t>
     <rPh sb="0" eb="1">
       <t>zhua'qu</t>
@@ -321,19 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杨光、高则晗、阳韵非</t>
-    <rPh sb="0" eb="1">
-      <t>yang'guang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gao'ze'han</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yang'yun'fei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手机控制app开发</t>
     <rPh sb="0" eb="1">
       <t>shou'ji</t>
@@ -347,32 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>王贺正、高则晗、阳韵非</t>
-    <rPh sb="0" eb="1">
-      <t>w'h'z</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>g'z'h</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>y'y'f</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单勇、高则晗、阳韵非</t>
-    <rPh sb="0" eb="1">
-      <t>shan'yong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gao'ze'han</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yang'yun'fei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>80fd170</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -786,6 +711,85 @@
       <t>wen'dang</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贺正(0.2)、高则晗(0.2)、单勇(0.1)、阳韵非(0.3)、杨光(0.2)</t>
+    <rPh sb="0" eb="1">
+      <t>w'h'z</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>g'zh</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shan'yong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>y'y'f</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yang'guang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频显示</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单勇(0.4)、高则晗(0.6)</t>
+    <rPh sb="0" eb="1">
+      <t>shan'yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao'ze'han</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贺正(0.4)、单勇(0.4)、高则晗(0.2)</t>
+    <rPh sb="0" eb="1">
+      <t>w'h'z</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shan'yong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>g'zh</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨光(0.1)、高则晗(0.8)、阳韵非(0.1)</t>
+    <rPh sb="0" eb="1">
+      <t>yang'guang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao'ze'han</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yang'yun'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨光(0.8)、阳韵非(0.2)</t>
+    <rPh sb="0" eb="1">
+      <t>yang'guang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>y'y'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献度分配的计算依据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1107,15 +1111,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,6 +1119,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1430,7 +1434,7 @@
   <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1507,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.15">
@@ -1527,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.15">
@@ -1779,19 +1783,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="F21" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1808,11 +1812,21 @@
       <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="B22" s="13">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13">
+        <v>20</v>
+      </c>
+      <c r="E22" s="24">
+        <v>15</v>
+      </c>
+      <c r="F22" s="24">
+        <v>15</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1846,13 +1860,13 @@
       <c r="A24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1868,13 +1882,13 @@
       <c r="A25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="B25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5336,12 +5350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -5365,13 +5379,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5379,13 +5393,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -5393,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -5407,13 +5421,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -5421,10 +5435,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5512,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -5527,13 +5541,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -5557,16 +5571,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -5574,16 +5588,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5594,13 +5608,13 @@
         <v>7447475</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5608,16 +5622,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5625,16 +5639,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5642,16 +5656,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5659,16 +5673,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5676,16 +5690,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5693,16 +5707,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -5710,16 +5724,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5727,16 +5741,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -5744,16 +5758,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5761,16 +5775,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -5778,7 +5792,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -5789,7 +5803,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -5800,7 +5814,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -5811,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5822,7 +5836,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -5833,7 +5847,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -5841,16 +5855,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D22" s="9">
         <v>22</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -5858,16 +5872,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D23" s="9">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -5875,7 +5889,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -5883,7 +5897,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -5891,7 +5905,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -5899,7 +5913,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -5907,16 +5921,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D28" s="9">
         <v>66</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -5924,7 +5938,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -5932,7 +5946,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -5940,7 +5954,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -5948,7 +5962,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -5964,7 +5978,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -5972,7 +5986,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -5980,7 +5994,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -5988,7 +6002,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -5996,7 +6010,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -6004,7 +6018,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -6012,7 +6026,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -6020,7 +6034,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -6028,7 +6042,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -6036,7 +6050,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -6044,7 +6058,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -6052,7 +6066,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -6060,7 +6074,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -6068,7 +6082,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -6076,7 +6090,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -6084,7 +6098,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -6092,7 +6106,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -6100,7 +6114,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -6108,7 +6122,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -6116,7 +6130,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -6124,7 +6138,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -6132,7 +6146,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -6140,7 +6154,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -6148,16 +6162,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -6165,7 +6179,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6182,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6196,13 +6210,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">

--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -483,13 +483,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,13 +519,6 @@
       <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -559,15 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,9 +566,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,29 +626,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,25 +655,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,37 +686,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -718,43 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,54 +747,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -832,7 +759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +801,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,49 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,30 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1052,6 +1021,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1066,6 +1050,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1073,21 +1081,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,152 +1098,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,7 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1287,7 +1280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1314,34 +1307,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,25 +1352,22 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2110,8 +2100,8 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -2145,13 +2135,13 @@
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -2167,13 +2157,13 @@
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
@@ -5813,7 +5803,7 @@
   <sheetPr/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -6484,8 +6474,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.6" outlineLevelCol="4"/>

--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="168">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -232,6 +232,9 @@
     <t>b88c732</t>
   </si>
   <si>
+    <t>初版手机APP</t>
+  </si>
+  <si>
     <t>07d938b</t>
   </si>
   <si>
@@ -262,12 +265,21 @@
     <t>118a981</t>
   </si>
   <si>
+    <t>检测机器人节点APP</t>
+  </si>
+  <si>
     <t>281de20</t>
   </si>
   <si>
+    <t>改进APP</t>
+  </si>
+  <si>
     <t>41ea42c</t>
   </si>
   <si>
+    <t>话题订阅显示界面</t>
+  </si>
+  <si>
     <t>065902d</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>65faea2</t>
   </si>
   <si>
+    <t>APP代码改进</t>
+  </si>
+  <si>
     <t>3b48f23</t>
   </si>
   <si>
@@ -289,9 +304,15 @@
     <t>870f11a</t>
   </si>
   <si>
+    <t>开始测试</t>
+  </si>
+  <si>
     <t>504139d</t>
   </si>
   <si>
+    <t>修改测试代码</t>
+  </si>
+  <si>
     <t>91bc361</t>
   </si>
   <si>
@@ -307,18 +328,30 @@
     <t>1b27441</t>
   </si>
   <si>
+    <t>测试用例123</t>
+  </si>
+  <si>
     <t>63a2675</t>
   </si>
   <si>
+    <t>测试用例1234</t>
+  </si>
+  <si>
     <t>9274cce</t>
   </si>
   <si>
+    <t>测试用例123456</t>
+  </si>
+  <si>
     <t>ee24140</t>
   </si>
   <si>
     <t>d99256b</t>
   </si>
   <si>
+    <t>整理主分支</t>
+  </si>
+  <si>
     <t>6a97b2c</t>
   </si>
   <si>
@@ -337,21 +370,36 @@
     <t>2c40a6f</t>
   </si>
   <si>
+    <t>整理文档</t>
+  </si>
+  <si>
     <t>a6a0f1e</t>
   </si>
   <si>
+    <t>删除冗余APP包</t>
+  </si>
+  <si>
     <t>31adcbf</t>
   </si>
   <si>
+    <t>修改测试报告文档</t>
+  </si>
+  <si>
     <t>6acef83</t>
   </si>
   <si>
     <t>e125e21</t>
   </si>
   <si>
+    <t>删除冗余文件</t>
+  </si>
+  <si>
     <t>bca09b4</t>
   </si>
   <si>
+    <t>添加测试用例</t>
+  </si>
+  <si>
     <t>99e5dcd</t>
   </si>
   <si>
@@ -359,9 +407,6 @@
   </si>
   <si>
     <t>57bdbef</t>
-  </si>
-  <si>
-    <t>修改测试报告文档</t>
   </si>
   <si>
     <t>07364d7</t>
@@ -551,35 +596,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -602,19 +618,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,9 +633,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,9 +678,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,6 +722,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -711,7 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +774,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,85 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,73 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,17 +1041,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,7 +1084,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,41 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,162 +1138,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5803,8 +5848,8 @@
   <sheetPr/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="17.4" outlineLevelCol="4"/>
@@ -6071,16 +6116,22 @@
       <c r="B16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7">
+        <v>440</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6091,7 +6142,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6102,7 +6153,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6113,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -6124,7 +6175,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6132,10 +6183,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="15">
         <v>22</v>
@@ -6149,10 +6200,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="15">
         <v>10</v>
@@ -6161,28 +6212,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="15">
+        <v>600</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="15">
+        <v>200</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="15">
+        <v>50</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6190,7 +6268,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6198,10 +6276,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D28" s="15">
         <v>66</v>
@@ -6210,12 +6288,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:5">
       <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="15">
+        <v>200</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6223,7 +6310,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6231,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6239,79 +6326,160 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="15">
         <v>9894979</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="15">
+        <v>100</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="15">
+        <v>8</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="15">
+        <v>9</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="15">
+        <v>7</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="15">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="15">
+        <v>10</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6319,15 +6487,24 @@
         <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>99</v>
+        <v>109</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6335,7 +6512,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6343,7 +6520,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6351,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6359,79 +6536,160 @@
         <v>45</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="15">
+        <v>200</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="14">
         <v>51</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="14">
         <v>52</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="15">
+        <v>153</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="14">
         <v>53</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="15">
+        <v>167</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="14">
         <v>54</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="15">
+        <v>202</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6439,10 +6697,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>52</v>
@@ -6456,7 +6714,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6732,7 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6489,7 +6747,7 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6501,13 +6759,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>35</v>
@@ -6518,13 +6776,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -6535,13 +6793,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>16</v>
@@ -6552,13 +6810,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
@@ -6569,13 +6827,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>16</v>
@@ -6586,13 +6844,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>16</v>
@@ -6603,13 +6861,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>16</v>
@@ -6620,13 +6878,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
@@ -6637,13 +6895,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
@@ -6654,13 +6912,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>16</v>
@@ -6671,13 +6929,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -6688,13 +6946,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
@@ -6705,13 +6963,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>16</v>
@@ -6722,13 +6980,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -6739,13 +6997,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
@@ -6756,13 +7014,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>16</v>
@@ -6773,13 +7031,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>16</v>
@@ -6790,13 +7048,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>16</v>

--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24860" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24860" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -510,26 +510,26 @@
     <rPh sb="2" eb="3">
       <t>chuan'shu</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>王贺正(0.2)、高则晗(0.2)、单勇(0.2)、阳韵非(0.2)、杨光(0.2)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>王贺正(0.4)、高则晗(0.4)、单勇(0.2)</t>
     <rPh sb="18" eb="19">
       <t>s'y</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>杨光(0.1)、高则晗(0.1)、阳韵非(0.8)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单勇(0.4)、高则晗(0.6)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>git提交次数、任务工作量比例、测试项</t>
@@ -554,7 +554,7 @@
     <rPh sb="18" eb="19">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>以工作量占比为主，以git commit次数为辅计算</t>
@@ -585,19 +585,15 @@
     <rPh sb="24" eb="25">
       <t>ji'suan</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1-13, 55</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, 21, 26</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>520f3ec</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>代码最终修改</t>
@@ -610,14 +606,57 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>阳韵非</t>
     <rPh sb="0" eb="1">
       <t>y'y'f</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨光</t>
+    <rPh sb="0" eb="1">
+      <t>yang'guang</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机APP视频显示功能</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 21, 26, 56</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-24, 27, 48, 51, 56</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -625,9 +664,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -673,13 +712,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
@@ -832,7 +864,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -889,35 +921,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,29 +981,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1277,14 +1309,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
@@ -1390,13 +1422,13 @@
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="31">
         <v>1</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -1414,8 +1446,11 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="31">
         <v>2</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -1434,11 +1469,13 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <v>3</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="34" t="s">
+        <v>172</v>
+      </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1456,14 +1493,14 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="31">
         <v>4</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="43">
-        <v>4</v>
+        <v>173</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -1482,11 +1519,15 @@
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1</v>
+      </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -1501,9 +1542,9 @@
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -1518,10 +1559,10 @@
       <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -1536,10 +1577,10 @@
       <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -1566,14 +1607,14 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="23" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -1674,10 +1715,10 @@
       <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -1695,13 +1736,13 @@
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -1717,13 +1758,13 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -5162,9 +5203,12 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <ignoredErrors>
+    <ignoredError sqref="D13" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5185,12 +5229,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5352,7 +5396,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5361,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -5376,13 +5420,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5783,6 +5827,15 @@
       <c r="B27" s="14" t="s">
         <v>77</v>
       </c>
+      <c r="C27" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="14">
+        <v>800</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
@@ -6227,23 +6280,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="D58" s="14">
         <v>338</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6254,7 +6307,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6267,13 +6320,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -6592,7 +6645,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="177">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -656,6 +656,32 @@
   </si>
   <si>
     <t>22-24, 27, 48, 51, 56</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加自动导航部分代码</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'hang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单勇</t>
+    <rPh sb="0" eb="1">
+      <t>s'y</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -960,6 +986,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,9 +1008,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,7 +1312,7 @@
   <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1309,14 +1335,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
@@ -1472,7 +1498,9 @@
       <c r="B12" s="31">
         <v>3</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24">
+        <v>28</v>
+      </c>
       <c r="D12" s="34" t="s">
         <v>172</v>
       </c>
@@ -1525,7 +1553,7 @@
       <c r="C14" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="36">
         <v>1</v>
       </c>
       <c r="E14" s="23"/>
@@ -1607,14 +1635,14 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="23" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -1736,13 +1764,13 @@
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -1758,13 +1786,13 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -5229,12 +5257,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5405,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -5420,13 +5448,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5877,6 +5905,15 @@
       </c>
       <c r="B30" s="14" t="s">
         <v>82</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="14">
+        <v>49</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -6320,13 +6357,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">

--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techpriestw/Documents/GitHub/Team203/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24860" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="267">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -682,6 +679,366 @@
     <rPh sb="0" eb="1">
       <t>s'y</t>
     </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理分支</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加rviz配置文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除未用的文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab分支合并到主分支</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文档到主分支</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理文档</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加读取YAML文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改launch配置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改slam配置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个版本的主控节点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并yaml读取功能到节点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android app部分commit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取和地图功能，合并到主分支</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Android app代码，添加</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>536465e</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fc2e6d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新依赖的websocket包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fec5778</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的GUI事件和功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>993f462</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改依赖的ROSBridgeClient包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加修改按键逻辑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b06dda</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导航功能，修正包名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8be7479</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改工程设置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f821cb</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加显示图片和视频元素，</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于地图和摄像头</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0e4b420</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复导致崩溃的BUG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进视频延迟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进地图导航目标发送</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf12e16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录树调整</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6079fd4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a5a6dd</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改一些配置文件，抓取功能调试中的代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6bc5ff2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个在机器人上调试通过能运行的代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加线程安全设计，基本的主控节点架构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>a50459d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改SLAM建图大小参数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa9d67f</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正launch中的问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aebed88</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善主控节点的导航、SLAM、停止功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>604dbcb</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个launch启动主功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>26abc34</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并机器人上的代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0fe6ff1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主功能launch</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>902b3f7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改launch参数，去除废弃的代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高则晗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>623ec8e</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加抓取选择功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab分支（用同一个用户提交）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>590d48e</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>主节点增加启动抓取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>133ab96</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决kinect节点冲突问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2c19a5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理目录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33c7cd3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导航地图显示机器人端的部分</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ea6382</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理临时文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-64，69</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1346,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,6 +1370,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,6 +1397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1311,46 +1692,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="17" customWidth="1"/>
     <col min="11" max="11" width="11" style="17" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="17" customWidth="1"/>
-    <col min="14" max="16" width="12.83203125" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="17"/>
+    <col min="13" max="13" width="11.19921875" style="17" customWidth="1"/>
+    <col min="14" max="16" width="12.796875" style="17" customWidth="1"/>
+    <col min="17" max="16384" width="8.69921875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,13 +1741,13 @@
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1384,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1424,13 +1805,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1468,12 +1849,15 @@
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="31">
         <v>2</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>170</v>
@@ -1491,7 +1875,7 @@
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1517,7 +1901,7 @@
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1543,7 +1927,7 @@
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1569,7 +1953,7 @@
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -1586,7 +1970,7 @@
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -1604,7 +1988,7 @@
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -1622,7 +2006,7 @@
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
     </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -1634,15 +2018,15 @@
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
     </row>
-    <row r="19" spans="1:16" ht="23" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:16" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -1654,7 +2038,7 @@
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -1682,7 +2066,7 @@
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
     </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1712,7 +2096,7 @@
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
     </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +2126,7 @@
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
     </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
@@ -1760,17 +2144,17 @@
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
     </row>
-    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -1782,17 +2166,17 @@
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
     </row>
-    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -1804,7 +2188,7 @@
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
     </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1822,7 +2206,7 @@
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
     </row>
-    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1840,7 +2224,7 @@
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
     </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1858,7 +2242,7 @@
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
     </row>
-    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1876,7 +2260,7 @@
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
     </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1894,7 +2278,7 @@
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
     </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1912,7 +2296,7 @@
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1930,7 +2314,7 @@
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -1948,7 +2332,7 @@
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1966,7 +2350,7 @@
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -1984,7 +2368,7 @@
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
     </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -2002,7 +2386,7 @@
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
     </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -2020,7 +2404,7 @@
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
     </row>
-    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -2038,7 +2422,7 @@
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
     </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -2056,7 +2440,7 @@
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
     </row>
-    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2074,7 +2458,7 @@
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
     </row>
-    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -2092,7 +2476,7 @@
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
     </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -2110,7 +2494,7 @@
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -2128,7 +2512,7 @@
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
     </row>
-    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -2146,7 +2530,7 @@
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
     </row>
-    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -2164,7 +2548,7 @@
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
     </row>
-    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -2182,7 +2566,7 @@
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
     </row>
-    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -2200,7 +2584,7 @@
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
     </row>
-    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -2218,7 +2602,7 @@
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
     </row>
-    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -2236,7 +2620,7 @@
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
     </row>
-    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -2254,7 +2638,7 @@
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
     </row>
-    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -2272,7 +2656,7 @@
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
     </row>
-    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2290,7 +2674,7 @@
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
     </row>
-    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -2308,7 +2692,7 @@
       <c r="O53" s="23"/>
       <c r="P53" s="23"/>
     </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -2326,7 +2710,7 @@
       <c r="O54" s="23"/>
       <c r="P54" s="23"/>
     </row>
-    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -2344,7 +2728,7 @@
       <c r="O55" s="23"/>
       <c r="P55" s="23"/>
     </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -2362,7 +2746,7 @@
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
     </row>
-    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -2380,7 +2764,7 @@
       <c r="O57" s="23"/>
       <c r="P57" s="23"/>
     </row>
-    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -2398,7 +2782,7 @@
       <c r="O58" s="23"/>
       <c r="P58" s="23"/>
     </row>
-    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -2416,7 +2800,7 @@
       <c r="O59" s="23"/>
       <c r="P59" s="23"/>
     </row>
-    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -2434,7 +2818,7 @@
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
     </row>
-    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -2452,7 +2836,7 @@
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
     </row>
-    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -2470,7 +2854,7 @@
       <c r="O62" s="23"/>
       <c r="P62" s="23"/>
     </row>
-    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -2488,7 +2872,7 @@
       <c r="O63" s="23"/>
       <c r="P63" s="23"/>
     </row>
-    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -2506,7 +2890,7 @@
       <c r="O64" s="23"/>
       <c r="P64" s="23"/>
     </row>
-    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -2524,7 +2908,7 @@
       <c r="O65" s="23"/>
       <c r="P65" s="23"/>
     </row>
-    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -2542,7 +2926,7 @@
       <c r="O66" s="23"/>
       <c r="P66" s="23"/>
     </row>
-    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -2560,7 +2944,7 @@
       <c r="O67" s="23"/>
       <c r="P67" s="23"/>
     </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -2578,7 +2962,7 @@
       <c r="O68" s="23"/>
       <c r="P68" s="23"/>
     </row>
-    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -2596,7 +2980,7 @@
       <c r="O69" s="23"/>
       <c r="P69" s="23"/>
     </row>
-    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2614,7 +2998,7 @@
       <c r="O70" s="23"/>
       <c r="P70" s="23"/>
     </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2632,7 +3016,7 @@
       <c r="O71" s="23"/>
       <c r="P71" s="23"/>
     </row>
-    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -2650,7 +3034,7 @@
       <c r="O72" s="23"/>
       <c r="P72" s="23"/>
     </row>
-    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -2668,7 +3052,7 @@
       <c r="O73" s="23"/>
       <c r="P73" s="23"/>
     </row>
-    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -2686,7 +3070,7 @@
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
     </row>
-    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -2704,7 +3088,7 @@
       <c r="O75" s="23"/>
       <c r="P75" s="23"/>
     </row>
-    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -2722,7 +3106,7 @@
       <c r="O76" s="23"/>
       <c r="P76" s="23"/>
     </row>
-    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2740,7 +3124,7 @@
       <c r="O77" s="23"/>
       <c r="P77" s="23"/>
     </row>
-    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -2758,7 +3142,7 @@
       <c r="O78" s="23"/>
       <c r="P78" s="23"/>
     </row>
-    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -2776,7 +3160,7 @@
       <c r="O79" s="23"/>
       <c r="P79" s="23"/>
     </row>
-    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2794,7 +3178,7 @@
       <c r="O80" s="23"/>
       <c r="P80" s="23"/>
     </row>
-    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -2812,7 +3196,7 @@
       <c r="O81" s="23"/>
       <c r="P81" s="23"/>
     </row>
-    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -2830,7 +3214,7 @@
       <c r="O82" s="23"/>
       <c r="P82" s="23"/>
     </row>
-    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -2848,7 +3232,7 @@
       <c r="O83" s="23"/>
       <c r="P83" s="23"/>
     </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -2866,7 +3250,7 @@
       <c r="O84" s="23"/>
       <c r="P84" s="23"/>
     </row>
-    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -2884,7 +3268,7 @@
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
     </row>
-    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2902,7 +3286,7 @@
       <c r="O86" s="23"/>
       <c r="P86" s="23"/>
     </row>
-    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -2920,7 +3304,7 @@
       <c r="O87" s="23"/>
       <c r="P87" s="23"/>
     </row>
-    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2938,7 +3322,7 @@
       <c r="O88" s="23"/>
       <c r="P88" s="23"/>
     </row>
-    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -2956,7 +3340,7 @@
       <c r="O89" s="23"/>
       <c r="P89" s="23"/>
     </row>
-    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -2974,7 +3358,7 @@
       <c r="O90" s="23"/>
       <c r="P90" s="23"/>
     </row>
-    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2992,7 +3376,7 @@
       <c r="O91" s="23"/>
       <c r="P91" s="23"/>
     </row>
-    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -3010,7 +3394,7 @@
       <c r="O92" s="23"/>
       <c r="P92" s="23"/>
     </row>
-    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -3028,7 +3412,7 @@
       <c r="O93" s="23"/>
       <c r="P93" s="23"/>
     </row>
-    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -3046,7 +3430,7 @@
       <c r="O94" s="23"/>
       <c r="P94" s="23"/>
     </row>
-    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -3064,7 +3448,7 @@
       <c r="O95" s="23"/>
       <c r="P95" s="23"/>
     </row>
-    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -3082,7 +3466,7 @@
       <c r="O96" s="23"/>
       <c r="P96" s="23"/>
     </row>
-    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -3100,7 +3484,7 @@
       <c r="O97" s="23"/>
       <c r="P97" s="23"/>
     </row>
-    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -3118,7 +3502,7 @@
       <c r="O98" s="23"/>
       <c r="P98" s="23"/>
     </row>
-    <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -3136,7 +3520,7 @@
       <c r="O99" s="23"/>
       <c r="P99" s="23"/>
     </row>
-    <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -3154,7 +3538,7 @@
       <c r="O100" s="23"/>
       <c r="P100" s="23"/>
     </row>
-    <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -3172,7 +3556,7 @@
       <c r="O101" s="23"/>
       <c r="P101" s="23"/>
     </row>
-    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -3190,7 +3574,7 @@
       <c r="O102" s="23"/>
       <c r="P102" s="23"/>
     </row>
-    <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -3208,7 +3592,7 @@
       <c r="O103" s="23"/>
       <c r="P103" s="23"/>
     </row>
-    <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -3226,7 +3610,7 @@
       <c r="O104" s="23"/>
       <c r="P104" s="23"/>
     </row>
-    <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -3244,7 +3628,7 @@
       <c r="O105" s="23"/>
       <c r="P105" s="23"/>
     </row>
-    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -3262,7 +3646,7 @@
       <c r="O106" s="23"/>
       <c r="P106" s="23"/>
     </row>
-    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -3280,7 +3664,7 @@
       <c r="O107" s="23"/>
       <c r="P107" s="23"/>
     </row>
-    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -3298,7 +3682,7 @@
       <c r="O108" s="23"/>
       <c r="P108" s="23"/>
     </row>
-    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -3316,7 +3700,7 @@
       <c r="O109" s="23"/>
       <c r="P109" s="23"/>
     </row>
-    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -3334,7 +3718,7 @@
       <c r="O110" s="23"/>
       <c r="P110" s="23"/>
     </row>
-    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -3352,7 +3736,7 @@
       <c r="O111" s="23"/>
       <c r="P111" s="23"/>
     </row>
-    <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -3370,7 +3754,7 @@
       <c r="O112" s="23"/>
       <c r="P112" s="23"/>
     </row>
-    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -3388,7 +3772,7 @@
       <c r="O113" s="23"/>
       <c r="P113" s="23"/>
     </row>
-    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -3406,7 +3790,7 @@
       <c r="O114" s="23"/>
       <c r="P114" s="23"/>
     </row>
-    <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -3424,7 +3808,7 @@
       <c r="O115" s="23"/>
       <c r="P115" s="23"/>
     </row>
-    <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -3442,7 +3826,7 @@
       <c r="O116" s="23"/>
       <c r="P116" s="23"/>
     </row>
-    <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -3460,7 +3844,7 @@
       <c r="O117" s="23"/>
       <c r="P117" s="23"/>
     </row>
-    <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -3478,7 +3862,7 @@
       <c r="O118" s="23"/>
       <c r="P118" s="23"/>
     </row>
-    <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -3496,7 +3880,7 @@
       <c r="O119" s="23"/>
       <c r="P119" s="23"/>
     </row>
-    <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -3514,7 +3898,7 @@
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
     </row>
-    <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -3532,7 +3916,7 @@
       <c r="O121" s="23"/>
       <c r="P121" s="23"/>
     </row>
-    <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -3550,7 +3934,7 @@
       <c r="O122" s="23"/>
       <c r="P122" s="23"/>
     </row>
-    <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -3568,7 +3952,7 @@
       <c r="O123" s="23"/>
       <c r="P123" s="23"/>
     </row>
-    <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -3586,7 +3970,7 @@
       <c r="O124" s="23"/>
       <c r="P124" s="23"/>
     </row>
-    <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -3604,7 +3988,7 @@
       <c r="O125" s="23"/>
       <c r="P125" s="23"/>
     </row>
-    <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -3622,7 +4006,7 @@
       <c r="O126" s="23"/>
       <c r="P126" s="23"/>
     </row>
-    <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -3640,7 +4024,7 @@
       <c r="O127" s="23"/>
       <c r="P127" s="23"/>
     </row>
-    <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -3658,7 +4042,7 @@
       <c r="O128" s="23"/>
       <c r="P128" s="23"/>
     </row>
-    <row r="129" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -3676,7 +4060,7 @@
       <c r="O129" s="23"/>
       <c r="P129" s="23"/>
     </row>
-    <row r="130" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -3694,7 +4078,7 @@
       <c r="O130" s="23"/>
       <c r="P130" s="23"/>
     </row>
-    <row r="131" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -3712,7 +4096,7 @@
       <c r="O131" s="23"/>
       <c r="P131" s="23"/>
     </row>
-    <row r="132" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -3730,7 +4114,7 @@
       <c r="O132" s="23"/>
       <c r="P132" s="23"/>
     </row>
-    <row r="133" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -3748,7 +4132,7 @@
       <c r="O133" s="23"/>
       <c r="P133" s="23"/>
     </row>
-    <row r="134" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -3766,7 +4150,7 @@
       <c r="O134" s="23"/>
       <c r="P134" s="23"/>
     </row>
-    <row r="135" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -3784,7 +4168,7 @@
       <c r="O135" s="23"/>
       <c r="P135" s="23"/>
     </row>
-    <row r="136" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -3802,7 +4186,7 @@
       <c r="O136" s="23"/>
       <c r="P136" s="23"/>
     </row>
-    <row r="137" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -3820,7 +4204,7 @@
       <c r="O137" s="23"/>
       <c r="P137" s="23"/>
     </row>
-    <row r="138" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -3838,7 +4222,7 @@
       <c r="O138" s="23"/>
       <c r="P138" s="23"/>
     </row>
-    <row r="139" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -3856,7 +4240,7 @@
       <c r="O139" s="23"/>
       <c r="P139" s="23"/>
     </row>
-    <row r="140" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -3874,7 +4258,7 @@
       <c r="O140" s="23"/>
       <c r="P140" s="23"/>
     </row>
-    <row r="141" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
@@ -3892,7 +4276,7 @@
       <c r="O141" s="23"/>
       <c r="P141" s="23"/>
     </row>
-    <row r="142" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
@@ -3910,7 +4294,7 @@
       <c r="O142" s="23"/>
       <c r="P142" s="23"/>
     </row>
-    <row r="143" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
@@ -3928,7 +4312,7 @@
       <c r="O143" s="23"/>
       <c r="P143" s="23"/>
     </row>
-    <row r="144" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
@@ -3946,7 +4330,7 @@
       <c r="O144" s="23"/>
       <c r="P144" s="23"/>
     </row>
-    <row r="145" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -3964,7 +4348,7 @@
       <c r="O145" s="23"/>
       <c r="P145" s="23"/>
     </row>
-    <row r="146" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -3982,7 +4366,7 @@
       <c r="O146" s="23"/>
       <c r="P146" s="23"/>
     </row>
-    <row r="147" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -4000,7 +4384,7 @@
       <c r="O147" s="23"/>
       <c r="P147" s="23"/>
     </row>
-    <row r="148" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -4018,7 +4402,7 @@
       <c r="O148" s="23"/>
       <c r="P148" s="23"/>
     </row>
-    <row r="149" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -4036,7 +4420,7 @@
       <c r="O149" s="23"/>
       <c r="P149" s="23"/>
     </row>
-    <row r="150" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -4054,7 +4438,7 @@
       <c r="O150" s="23"/>
       <c r="P150" s="23"/>
     </row>
-    <row r="151" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
@@ -4072,7 +4456,7 @@
       <c r="O151" s="23"/>
       <c r="P151" s="23"/>
     </row>
-    <row r="152" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
@@ -4090,7 +4474,7 @@
       <c r="O152" s="23"/>
       <c r="P152" s="23"/>
     </row>
-    <row r="153" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
@@ -4108,7 +4492,7 @@
       <c r="O153" s="23"/>
       <c r="P153" s="23"/>
     </row>
-    <row r="154" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
@@ -4126,7 +4510,7 @@
       <c r="O154" s="23"/>
       <c r="P154" s="23"/>
     </row>
-    <row r="155" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
@@ -4144,7 +4528,7 @@
       <c r="O155" s="23"/>
       <c r="P155" s="23"/>
     </row>
-    <row r="156" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
@@ -4162,7 +4546,7 @@
       <c r="O156" s="23"/>
       <c r="P156" s="23"/>
     </row>
-    <row r="157" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
@@ -4180,7 +4564,7 @@
       <c r="O157" s="23"/>
       <c r="P157" s="23"/>
     </row>
-    <row r="158" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
@@ -4198,7 +4582,7 @@
       <c r="O158" s="23"/>
       <c r="P158" s="23"/>
     </row>
-    <row r="159" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
@@ -4216,7 +4600,7 @@
       <c r="O159" s="23"/>
       <c r="P159" s="23"/>
     </row>
-    <row r="160" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
@@ -4234,7 +4618,7 @@
       <c r="O160" s="23"/>
       <c r="P160" s="23"/>
     </row>
-    <row r="161" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
@@ -4252,7 +4636,7 @@
       <c r="O161" s="23"/>
       <c r="P161" s="23"/>
     </row>
-    <row r="162" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
@@ -4270,7 +4654,7 @@
       <c r="O162" s="23"/>
       <c r="P162" s="23"/>
     </row>
-    <row r="163" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
@@ -4288,7 +4672,7 @@
       <c r="O163" s="23"/>
       <c r="P163" s="23"/>
     </row>
-    <row r="164" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
@@ -4306,7 +4690,7 @@
       <c r="O164" s="23"/>
       <c r="P164" s="23"/>
     </row>
-    <row r="165" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
@@ -4324,7 +4708,7 @@
       <c r="O165" s="23"/>
       <c r="P165" s="23"/>
     </row>
-    <row r="166" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
@@ -4342,7 +4726,7 @@
       <c r="O166" s="23"/>
       <c r="P166" s="23"/>
     </row>
-    <row r="167" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
@@ -4360,7 +4744,7 @@
       <c r="O167" s="23"/>
       <c r="P167" s="23"/>
     </row>
-    <row r="168" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
@@ -4378,7 +4762,7 @@
       <c r="O168" s="23"/>
       <c r="P168" s="23"/>
     </row>
-    <row r="169" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
@@ -4396,7 +4780,7 @@
       <c r="O169" s="23"/>
       <c r="P169" s="23"/>
     </row>
-    <row r="170" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
@@ -4414,7 +4798,7 @@
       <c r="O170" s="23"/>
       <c r="P170" s="23"/>
     </row>
-    <row r="171" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -4432,7 +4816,7 @@
       <c r="O171" s="23"/>
       <c r="P171" s="23"/>
     </row>
-    <row r="172" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
@@ -4450,7 +4834,7 @@
       <c r="O172" s="23"/>
       <c r="P172" s="23"/>
     </row>
-    <row r="173" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
@@ -4468,7 +4852,7 @@
       <c r="O173" s="23"/>
       <c r="P173" s="23"/>
     </row>
-    <row r="174" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
@@ -4486,7 +4870,7 @@
       <c r="O174" s="23"/>
       <c r="P174" s="23"/>
     </row>
-    <row r="175" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
@@ -4504,7 +4888,7 @@
       <c r="O175" s="23"/>
       <c r="P175" s="23"/>
     </row>
-    <row r="176" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
@@ -4522,7 +4906,7 @@
       <c r="O176" s="23"/>
       <c r="P176" s="23"/>
     </row>
-    <row r="177" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
@@ -4540,7 +4924,7 @@
       <c r="O177" s="23"/>
       <c r="P177" s="23"/>
     </row>
-    <row r="178" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
@@ -4558,7 +4942,7 @@
       <c r="O178" s="23"/>
       <c r="P178" s="23"/>
     </row>
-    <row r="179" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
@@ -4576,7 +4960,7 @@
       <c r="O179" s="23"/>
       <c r="P179" s="23"/>
     </row>
-    <row r="180" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -4594,7 +4978,7 @@
       <c r="O180" s="23"/>
       <c r="P180" s="23"/>
     </row>
-    <row r="181" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -4612,7 +4996,7 @@
       <c r="O181" s="23"/>
       <c r="P181" s="23"/>
     </row>
-    <row r="182" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -4630,7 +5014,7 @@
       <c r="O182" s="23"/>
       <c r="P182" s="23"/>
     </row>
-    <row r="183" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -4648,7 +5032,7 @@
       <c r="O183" s="23"/>
       <c r="P183" s="23"/>
     </row>
-    <row r="184" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
@@ -4666,7 +5050,7 @@
       <c r="O184" s="23"/>
       <c r="P184" s="23"/>
     </row>
-    <row r="185" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
@@ -4684,7 +5068,7 @@
       <c r="O185" s="23"/>
       <c r="P185" s="23"/>
     </row>
-    <row r="186" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
@@ -4702,7 +5086,7 @@
       <c r="O186" s="23"/>
       <c r="P186" s="23"/>
     </row>
-    <row r="187" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
@@ -4720,7 +5104,7 @@
       <c r="O187" s="23"/>
       <c r="P187" s="23"/>
     </row>
-    <row r="188" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
@@ -4738,7 +5122,7 @@
       <c r="O188" s="23"/>
       <c r="P188" s="23"/>
     </row>
-    <row r="189" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
@@ -4756,7 +5140,7 @@
       <c r="O189" s="23"/>
       <c r="P189" s="23"/>
     </row>
-    <row r="190" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
@@ -4774,7 +5158,7 @@
       <c r="O190" s="23"/>
       <c r="P190" s="23"/>
     </row>
-    <row r="191" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
@@ -4792,7 +5176,7 @@
       <c r="O191" s="23"/>
       <c r="P191" s="23"/>
     </row>
-    <row r="192" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -4810,7 +5194,7 @@
       <c r="O192" s="23"/>
       <c r="P192" s="23"/>
     </row>
-    <row r="193" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -4828,7 +5212,7 @@
       <c r="O193" s="23"/>
       <c r="P193" s="23"/>
     </row>
-    <row r="194" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -4846,7 +5230,7 @@
       <c r="O194" s="23"/>
       <c r="P194" s="23"/>
     </row>
-    <row r="195" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -4864,7 +5248,7 @@
       <c r="O195" s="23"/>
       <c r="P195" s="23"/>
     </row>
-    <row r="196" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
@@ -4882,7 +5266,7 @@
       <c r="O196" s="23"/>
       <c r="P196" s="23"/>
     </row>
-    <row r="197" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
@@ -4900,7 +5284,7 @@
       <c r="O197" s="23"/>
       <c r="P197" s="23"/>
     </row>
-    <row r="198" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
@@ -4918,7 +5302,7 @@
       <c r="O198" s="23"/>
       <c r="P198" s="23"/>
     </row>
-    <row r="199" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
@@ -4936,7 +5320,7 @@
       <c r="O199" s="23"/>
       <c r="P199" s="23"/>
     </row>
-    <row r="200" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
@@ -4954,7 +5338,7 @@
       <c r="O200" s="23"/>
       <c r="P200" s="23"/>
     </row>
-    <row r="201" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
@@ -4972,7 +5356,7 @@
       <c r="O201" s="23"/>
       <c r="P201" s="23"/>
     </row>
-    <row r="202" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
@@ -4990,7 +5374,7 @@
       <c r="O202" s="23"/>
       <c r="P202" s="23"/>
     </row>
-    <row r="203" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="23"/>
       <c r="C203" s="23"/>
@@ -5008,7 +5392,7 @@
       <c r="O203" s="23"/>
       <c r="P203" s="23"/>
     </row>
-    <row r="204" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
@@ -5026,7 +5410,7 @@
       <c r="O204" s="23"/>
       <c r="P204" s="23"/>
     </row>
-    <row r="205" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -5044,7 +5428,7 @@
       <c r="O205" s="23"/>
       <c r="P205" s="23"/>
     </row>
-    <row r="206" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
@@ -5062,7 +5446,7 @@
       <c r="O206" s="23"/>
       <c r="P206" s="23"/>
     </row>
-    <row r="207" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
@@ -5080,7 +5464,7 @@
       <c r="O207" s="23"/>
       <c r="P207" s="23"/>
     </row>
-    <row r="208" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
@@ -5098,7 +5482,7 @@
       <c r="O208" s="23"/>
       <c r="P208" s="23"/>
     </row>
-    <row r="209" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="23"/>
       <c r="C209" s="23"/>
@@ -5116,7 +5500,7 @@
       <c r="O209" s="23"/>
       <c r="P209" s="23"/>
     </row>
-    <row r="210" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="23"/>
       <c r="C210" s="23"/>
@@ -5134,7 +5518,7 @@
       <c r="O210" s="23"/>
       <c r="P210" s="23"/>
     </row>
-    <row r="211" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="23"/>
       <c r="C211" s="23"/>
@@ -5152,7 +5536,7 @@
       <c r="O211" s="23"/>
       <c r="P211" s="23"/>
     </row>
-    <row r="212" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
@@ -5170,7 +5554,7 @@
       <c r="O212" s="23"/>
       <c r="P212" s="23"/>
     </row>
-    <row r="213" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="23"/>
       <c r="C213" s="23"/>
@@ -5188,7 +5572,7 @@
       <c r="O213" s="23"/>
       <c r="P213" s="23"/>
     </row>
-    <row r="214" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="23"/>
       <c r="C214" s="23"/>
@@ -5206,7 +5590,7 @@
       <c r="O214" s="23"/>
       <c r="P214" s="23"/>
     </row>
-    <row r="215" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="23"/>
       <c r="C215" s="23"/>
@@ -5248,23 +5632,23 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" customWidth="1"/>
+    <col min="4" max="4" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:4" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5278,7 +5662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5292,7 +5676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5306,7 +5690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5320,7 +5704,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5334,7 +5718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5348,73 +5732,73 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5431,32 +5815,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="37" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20" style="14" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="5.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="37" style="46" customWidth="1"/>
+    <col min="3" max="3" width="39.09765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="34.8984375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5466,14 +5850,14 @@
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="47" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5483,14 +5867,14 @@
       <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5500,14 +5884,14 @@
       <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5517,14 +5901,14 @@
       <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5534,14 +5918,14 @@
       <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5551,14 +5935,14 @@
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5568,14 +5952,14 @@
       <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5585,14 +5969,14 @@
       <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5602,14 +5986,14 @@
       <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5619,14 +6003,14 @@
       <c r="C11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5636,14 +6020,14 @@
       <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5653,14 +6037,14 @@
       <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5670,14 +6054,14 @@
       <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5687,14 +6071,14 @@
       <c r="C15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5704,638 +6088,1205 @@
       <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="47">
         <v>440</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="47">
+        <v>100</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="47">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="48">
+        <v>42</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="49">
+        <v>129</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="50">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="50">
         <v>22</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="46" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="50">
         <v>10</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="50">
         <v>600</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="50">
         <v>200</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="50">
         <v>50</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="50">
         <v>800</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="50">
         <v>66</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="50">
         <v>200</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="50">
         <v>49</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
+      <c r="C32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="50">
+        <v>60</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="C33" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B34" s="46">
         <v>9894979</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="50">
         <v>100</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="14">
-        <v>8</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <v>33</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="14">
-        <v>9</v>
+      <c r="D35" s="50">
+        <v>8</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <v>34</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="14">
-        <v>7</v>
+      <c r="D36" s="50">
+        <v>9</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <v>35</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="14">
-        <v>5</v>
+      <c r="D37" s="50">
+        <v>7</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <v>36</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>91</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="14">
-        <v>10</v>
+      <c r="D38" s="50">
+        <v>5</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <v>37</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>92</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="D39" s="50">
+        <v>10</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <v>38</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <v>39</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>96</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>94</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
+        <v>39</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>40</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="46" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="13">
+      <c r="C43" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>41</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D44" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="13">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <v>42</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="46" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="13">
+      <c r="C45" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>43</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="46" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="13">
+      <c r="C46" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>44</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="13">
+      <c r="C47" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <v>45</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="46" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13">
+      <c r="C48" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
         <v>46</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="13">
-        <v>47</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <v>48</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="14">
-        <v>200</v>
+        <v>107</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <v>49</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>42</v>
+        <v>109</v>
+      </c>
+      <c r="D51" s="50">
+        <v>200</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <v>50</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>112</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <v>51</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>113</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
-        <v>52</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>115</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="14">
-        <v>153</v>
+        <v>114</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <v>53</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>117</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="14">
-        <v>167</v>
+      <c r="D55" s="50">
+        <v>153</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <v>54</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>118</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="14">
-        <v>202</v>
+      <c r="D56" s="50">
+        <v>167</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
+        <v>54</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="50">
+        <v>202</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>55</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="13">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
         <v>56</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="50">
         <v>338</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>57</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="50">
+        <v>200</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>58</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="50">
+        <v>23</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>59</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="50">
+        <v>274</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>60</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="50">
+        <v>228</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>61</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="50">
+        <v>113</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>62</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="50">
+        <v>1</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>63</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="50">
+        <v>128</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>64</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="50">
+        <v>45</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>65</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>66</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="50">
+        <v>36</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>67</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="50">
+        <v>30</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>68</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="50">
+        <v>13</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>69</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="50">
+        <v>5</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>70</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="50">
+        <v>13</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>71</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" s="50">
+        <v>118</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>72</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="50">
+        <v>5</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>73</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="50">
+        <v>32</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>74</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="50">
+        <v>1</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>75</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="50">
+        <v>5</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>76</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="50">
+        <v>17</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>77</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="50">
+        <v>7</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>78</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="50">
+        <v>13</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>79</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>80</v>
+      </c>
+      <c r="B89" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="50">
+        <v>12</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>81</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A74:E74"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6343,29 +7294,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="31.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
+    <col min="5" max="5" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -6382,7 +7333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6399,7 +7350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6416,7 +7367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6433,7 +7384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6450,7 +7401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6467,7 +7418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6484,7 +7435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6501,7 +7452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6518,7 +7469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6535,7 +7486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6552,7 +7503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6569,7 +7520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6586,7 +7537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6603,7 +7554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6620,7 +7571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6637,7 +7588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6654,7 +7605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -6671,7 +7622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
